--- a/Excel Files/PQ Challenges/PQ Challenge 5 Problem.xlsx
+++ b/Excel Files/PQ Challenges/PQ Challenge 5 Problem.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PQ Challenges\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\Excel-BI-Python\Excel Files\PQ Challenges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FDCCE8A-4139-4361-94F9-D9CCE35CB35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E8A529-FADE-47C6-AEF3-987FE97FD841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="14020" xr2:uid="{0A80A5F7-7B22-46CE-A7B9-976396F3357E}"/>
   </bookViews>
@@ -32,6 +32,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1341,13 +1363,42 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="1067" row="11">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{3EEBC825-EED4-4224-9CA9-5526D8650FEC}">
+  <we:reference id="wa200003696" version="1.2.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="WA200003696" version="1.2.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties>
+    <we:property name="projectV0_1-56c6e055-265e-4713-816e-a646dbb708de" value="{&quot;kind&quot;:&quot;AFEJSONBlobNode&quot;,&quot;id&quot;:&quot;{6EF335C1-6E3E-4065-8878-F81F2C42D04B}&quot;}"/>
+  </we:properties>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC0B544-88EA-4B86-B815-0FE4924EC25E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:I52"/>
+  <dimension ref="B1:R52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1361,10 +1412,13 @@
     <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:18" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:18" ht="29" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1386,8 +1440,27 @@
       <c r="I2" s="16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="M2" cm="1">
+        <f t="array" ref="M2:R11">_xlfn.LAMBDA(_xlpm.Data, _xlfn.LET(_xlpm.Data2, B3:B52, _xlpm.TransformToCol, _xlfn.WRAPROWS(_xlpm.Data, 5), _xlpm.SortedData, _xlfn.SORTBY(_xlpm.TransformToCol, _xlfn.CHOOSECOLS(_xlpm.TransformToCol, 2), -1), _xlpm.Rank, _xlfn.SEQUENCE(ROWS(_xlpm.SortedData)), _xlpm.Result, _xlfn.HSTACK(_xlpm.Rank, _xlpm.SortedData), _xlpm.Result))(B3:B52)</f>
+        <v>1</v>
+      </c>
+      <c r="N2" t="str">
+        <v>China</v>
+      </c>
+      <c r="O2">
+        <v>1425887337</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>9706961</v>
+      </c>
+      <c r="R2" t="str">
+        <v>147/km²</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1409,8 +1482,26 @@
       <c r="I3" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3" t="str">
+        <v>India</v>
+      </c>
+      <c r="O3">
+        <v>1417173173</v>
+      </c>
+      <c r="P3">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="Q3">
+        <v>3287590</v>
+      </c>
+      <c r="R3" t="str">
+        <v>431/km²</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
         <v>171186372</v>
       </c>
@@ -1432,8 +1523,26 @@
       <c r="I4" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4" t="str">
+        <v>United States</v>
+      </c>
+      <c r="O4">
+        <v>338289857</v>
+      </c>
+      <c r="P4">
+        <v>3.8E-3</v>
+      </c>
+      <c r="Q4">
+        <v>9372610</v>
+      </c>
+      <c r="R4" t="str">
+        <v>36/km²</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
         <v>1.0800000000000001E-2</v>
       </c>
@@ -1455,8 +1564,26 @@
       <c r="I5" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5" t="str">
+        <v>Indonesia</v>
+      </c>
+      <c r="O5">
+        <v>275501339</v>
+      </c>
+      <c r="P5">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="Q5">
+        <v>1904569</v>
+      </c>
+      <c r="R5" t="str">
+        <v>145/km²</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B6" s="2">
         <v>147570</v>
       </c>
@@ -1478,8 +1605,26 @@
       <c r="I6" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6" t="str">
+        <v>Pakistan</v>
+      </c>
+      <c r="O6">
+        <v>235824862</v>
+      </c>
+      <c r="P6">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="Q6">
+        <v>881912</v>
+      </c>
+      <c r="R6" t="str">
+        <v>267/km²</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
@@ -1501,8 +1646,26 @@
       <c r="I7" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="N7" t="str">
+        <v>Nigeria</v>
+      </c>
+      <c r="O7">
+        <v>218541212</v>
+      </c>
+      <c r="P7">
+        <v>2.41E-2</v>
+      </c>
+      <c r="Q7">
+        <v>923768</v>
+      </c>
+      <c r="R7" t="str">
+        <v>237/km²</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
@@ -1524,8 +1687,26 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8" t="str">
+        <v>Brazil</v>
+      </c>
+      <c r="O8">
+        <v>215313498</v>
+      </c>
+      <c r="P8">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="Q8">
+        <v>8515767</v>
+      </c>
+      <c r="R8" t="str">
+        <v>25/km²</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B9" s="2">
         <v>215313498</v>
       </c>
@@ -1547,8 +1728,26 @@
       <c r="I9" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="M9">
+        <v>8</v>
+      </c>
+      <c r="N9" t="str">
+        <v>Bangladesh</v>
+      </c>
+      <c r="O9">
+        <v>171186372</v>
+      </c>
+      <c r="P9">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="Q9">
+        <v>147570</v>
+      </c>
+      <c r="R9" t="str">
+        <v>1,160/km²</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B10" s="2">
         <v>4.5999999999999999E-3</v>
       </c>
@@ -1570,8 +1769,26 @@
       <c r="I10" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="M10">
+        <v>9</v>
+      </c>
+      <c r="N10" t="str">
+        <v>Russia</v>
+      </c>
+      <c r="O10">
+        <v>144713314</v>
+      </c>
+      <c r="P10">
+        <v>-2.7000000000000001E-3</v>
+      </c>
+      <c r="Q10">
+        <v>17098242</v>
+      </c>
+      <c r="R10" t="str">
+        <v>8/km²</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B11" s="2">
         <v>8515767</v>
       </c>
@@ -1593,8 +1810,26 @@
       <c r="I11" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11" t="str">
+        <v>Mexico</v>
+      </c>
+      <c r="O11">
+        <v>127504125</v>
+      </c>
+      <c r="P11">
+        <v>6.3E-3</v>
+      </c>
+      <c r="Q11">
+        <v>1964375</v>
+      </c>
+      <c r="R11" t="str">
+        <v>65/km²</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1617,22 +1852,22 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B14" s="2">
         <v>1425887337</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B15" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B16" s="2">
         <v>9706961</v>
       </c>
@@ -1821,4 +2056,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvAC8AIAAtAC0ALQAgAFcAbwByAGsAYgBvAG8AawAgAG0AbwBkAHUAbABlACAALQAtAC0AXABuAC8ALwAgAEEAIABmAGkAbABlACAAbwBmACAAbgBhAG0AZQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AcwAgAG8AZgAgAHQAaABlACAAZgBvAHIAbQA6AFwAbgAvAC8AIAAgACAAIABuAGEAbQBlACAAPQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AOwBcAG4AIgB9AF0ALAAiAHAAcgBvAGoAZQBjAHQATgBhAG0AZQBzACIAOgBbAF0ALAAiAGwAbwBjAGEAbABlACIAOgB7ACIAbABpAHMAdABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHMAdABhAHQAZQBtAGUAbgB0AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiADsAIgAsACIAcgBvAHcAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAOwAiACwAIgBjAG8AbAB1AG0AbgBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHQAaABvAHUAcwBhAG4AZABzAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAZABlAGMAaQBtAGEAbABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAuACIALAAiAGQAYQB0AGUATwByAGQAZQByACIAOgAiAE0ARABZACIALAAiAGMAdQByAHIAZQBuAGMAeQBTAHkAbQBiAG8AbAAiADoAIgAkACIALAAiAGkAcwBDAHUAcgByAGUAbgBjAHkAUwB5AG0AYgBvAGwATABlAGEAZAAiADoAdAByAHUAZQAsACIAaQBzAEMAdQByAHIAZQBuAGMAeQBTAGUAcABCAHkAUwBwAGEAYwBlACIAOgBmAGEAbABzAGUALAAiAHIAbwB3AEwAZQB0AHQAZQByACIAOgAiAFIAIgAsACIAYwBvAGwAdQBtAG4ATABlAHQAdABlAHIAIgA6ACIAQwAiACwAIgByAGMATABlAGYAdABCAHIAYQBjAGsAZQB0ACIAOgAiAFsAIgAsACIAcgBjAFIAaQBnAGgAdABCAHIAYQBjAGsAZQB0ACIAOgAiAF0AIgAsACIAbABvAGMAYQBsAGUATgBhAG0AZQAiADoAIgBlAG4ALQB1AHMAIgAsACIAdABoAG8AdQBzAGEAbgBkAHMAUABvAHMAaQB0AGkAbwBuAHMAIgA6AFsAMwBdAH0AfQA=</AFEJSONBlob>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EF335C1-6E3E-4065-8878-F81F2C42D04B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>